--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993855.173402813</v>
+        <v>2026433.387918012</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359776.5826913992</v>
+        <v>339029.648273846</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075589</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8837963815379</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>138.8401591510642</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>200.8531994405235</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>198.7050131246913</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +913,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>65.1306020652372</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>227.4128599785995</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>146.0027717528283</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.784519550421932</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>97.25144273425367</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1455,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32943916025772</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.136888730010115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>152.9376416850984</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.99520185832365</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,13 +1694,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32943916025772</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>53.92880121529013</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -1786,7 +1788,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1847,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>108.4745897976403</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>209.1973256436691</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>78.30557825330717</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>211.6216064629557</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.59832967195071</v>
+        <v>38.39332122702308</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>296.2021088863434</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>36.27220040330848</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2163,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>78.70529233151257</v>
+        <v>60.1142553131291</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>62.56525216889494</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>59.06822343875539</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>17.41551314361287</v>
+        <v>170.4109780037607</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2403,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>37.22402582628327</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.02839015808961</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>136.2566308880121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>13.3971696935589</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -2609,19 +2611,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>187.7152335133401</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,13 +2645,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>24.6481577642662</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -2691,10 +2693,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>121.4165796131828</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>154.5117248826795</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>4.033852114521745</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>212.5895090690026</v>
+        <v>113.8120650373817</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2877,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4384026085238</v>
       </c>
       <c r="G30" t="n">
-        <v>106.2387529750474</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.14352724124571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>77.50776027739573</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>203.8249232785926</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>121.3936468124847</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>6.45683482408856</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.456834824088095</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>136.2566308880121</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3229,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>156.848207690687</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>302.0370209248364</v>
+        <v>192.0676942294393</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>94.06259899123577</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3398,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>60.36693997173198</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>122.3078802415589</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>149.7232056537447</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>109.8349590911975</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>240.3329980509724</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3585,13 +3587,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>87.08036771626159</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -3600,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>9.049743378591959</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>85.01043530101212</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>77.50776027739573</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>232.0095242284292</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>39.46623355138864</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3870,10 +3872,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>60.36693997173198</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.2487855355433703</v>
       </c>
     </row>
     <row r="43">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.96858446130982</v>
+        <v>50.39085407108881</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>138.8545967049575</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>77.956025684352</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571426</v>
+        <v>0.2749539156375716</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>60.36693997173198</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4144,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>75.58673470997141</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E2" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4367,13 +4369,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.2693145670932</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C3" t="n">
-        <v>259.2693145670932</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E3" t="n">
         <v>110.334904905842</v>
@@ -4413,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>259.2693145670932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>259.2693145670932</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.2693145670932</v>
+        <v>761.1751358737438</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>753.253405673024</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>753.253405673024</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>753.253405673024</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4601,16 +4603,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>753.253405673024</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>753.253405673024</v>
       </c>
     </row>
     <row r="6">
@@ -4647,46 +4649,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>898.2686685760532</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U6" t="n">
-        <v>670.0450503124422</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>434.8929420806995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>753.253405673024</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>509.8046290289238</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4890,7 +4892,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>434.8929420806995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>581.4275000538145</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>373.5759998482816</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="10">
@@ -4978,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2124.767062713795</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>145.1287769812945</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T11" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U11" t="n">
-        <v>2124.767062713795</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V11" t="n">
-        <v>2124.767062713795</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W11" t="n">
-        <v>2124.767062713795</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X11" t="n">
-        <v>2124.767062713795</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="Y11" t="n">
-        <v>2124.767062713795</v>
+        <v>556.1146817709021</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5118,22 +5120,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
         <v>2344.749822082216</v>
@@ -5154,16 +5156,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W12" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y12" t="n">
-        <v>988.8792202047736</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
         <v>102.3180182963936</v>
@@ -5200,49 +5202,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2270.376276991246</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1339.356344518795</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G14" t="n">
         <v>542.5821871309436</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5294,34 +5296,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2171.3912246091</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>1951.408465240678</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="V14" t="n">
-        <v>2270.376276991246</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="W14" t="n">
-        <v>2270.376276991246</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="X14" t="n">
-        <v>2270.376276991246</v>
+        <v>1697.622043125546</v>
       </c>
       <c r="Y14" t="n">
-        <v>2270.376276991246</v>
+        <v>1697.622043125546</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G15" t="n">
         <v>221.6448824165167</v>
@@ -5358,19 +5360,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
         <v>2193.291384540003</v>
@@ -5379,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F16" t="n">
         <v>570.9156784273715</v>
@@ -5437,49 +5439,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1867.1984047608</v>
+        <v>423.5440077480851</v>
       </c>
       <c r="C17" t="n">
-        <v>1867.1984047608</v>
+        <v>423.5440077480851</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>423.5440077480851</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>423.5440077480851</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>423.5440077480851</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>423.5440077480851</v>
       </c>
       <c r="H17" t="n">
         <v>212.2335778049849</v>
@@ -5519,46 +5521,46 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U17" t="n">
-        <v>1867.1984047608</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="V17" t="n">
-        <v>1867.1984047608</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W17" t="n">
-        <v>1867.1984047608</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="X17" t="n">
-        <v>1867.1984047608</v>
+        <v>813.6833397238968</v>
       </c>
       <c r="Y17" t="n">
-        <v>1867.1984047608</v>
+        <v>423.5440077480851</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>636.554030853528</v>
+        <v>783.3663200545598</v>
       </c>
       <c r="C18" t="n">
-        <v>462.101001572401</v>
+        <v>608.9132907734328</v>
       </c>
       <c r="D18" t="n">
-        <v>313.1665919111497</v>
+        <v>459.9788811121815</v>
       </c>
       <c r="E18" t="n">
-        <v>153.9291369056942</v>
+        <v>300.741426106726</v>
       </c>
       <c r="F18" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5619,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U18" t="n">
-        <v>1709.770631804027</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V18" t="n">
-        <v>1474.618523572284</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W18" t="n">
-        <v>1220.381166844083</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X18" t="n">
-        <v>1012.52966663855</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y18" t="n">
-        <v>804.7693678735961</v>
+        <v>951.5816570746279</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>346.3547163191316</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I19" t="n">
         <v>46.89499644164432</v>
@@ -5674,49 +5676,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="U19" t="n">
-        <v>391.0727469424309</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="V19" t="n">
-        <v>136.388258736544</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="W19" t="n">
-        <v>136.388258736544</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="X19" t="n">
-        <v>136.388258736544</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>528.0031811493714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>841.7762365110884</v>
+        <v>863.4820044376318</v>
       </c>
       <c r="C20" t="n">
-        <v>841.7762365110884</v>
+        <v>494.51948749722</v>
       </c>
       <c r="D20" t="n">
-        <v>841.7762365110884</v>
+        <v>494.51948749722</v>
       </c>
       <c r="E20" t="n">
-        <v>841.7762365110884</v>
+        <v>494.51948749722</v>
       </c>
       <c r="F20" t="n">
-        <v>841.7762365110884</v>
+        <v>83.53358270761248</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>83.53358270761248</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P20" t="n">
         <v>2224.886645733486</v>
@@ -5786,16 +5788,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="W20" t="n">
-        <v>1991.981166812102</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="X20" t="n">
-        <v>1618.515408551022</v>
+        <v>1640.221176477565</v>
       </c>
       <c r="Y20" t="n">
-        <v>1228.37607657521</v>
+        <v>1250.081844501753</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551149</v>
+        <v>843.8100588399047</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739879</v>
+        <v>669.3570295587778</v>
       </c>
       <c r="D21" t="n">
-        <v>447.6797356739879</v>
+        <v>520.4226198975265</v>
       </c>
       <c r="E21" t="n">
-        <v>447.6797356739879</v>
+        <v>361.185164892071</v>
       </c>
       <c r="F21" t="n">
-        <v>301.1451777008729</v>
+        <v>214.650606918956</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5838,43 +5840,43 @@
         <v>705.6153558007834</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.511576412174</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1568.236257700347</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>1969.948689296673</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2275.355263568887</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673871</v>
+        <v>1681.874551558661</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401369</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.348101975183</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>426.1201086060704</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="C22" t="n">
-        <v>426.1201086060704</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="D22" t="n">
-        <v>426.1201086060704</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="E22" t="n">
-        <v>362.9228841930452</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="F22" t="n">
-        <v>216.0329366951349</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5931,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.7685734363101</v>
+        <v>352.7615066161414</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1209.220715163754</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C23" t="n">
-        <v>1209.220715163754</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D23" t="n">
-        <v>850.9550165570038</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E23" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
         <v>46.89499644164432</v>
@@ -5984,25 +5986,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O23" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P23" t="n">
         <v>2224.886645733486</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645667</v>
+        <v>2090.963399967083</v>
       </c>
       <c r="V23" t="n">
-        <v>1595.820555227876</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W23" t="n">
-        <v>1595.820555227876</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X23" t="n">
-        <v>1595.820555227876</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.820555227876</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="24">
@@ -6051,16 +6053,16 @@
         <v>298.7453260127367</v>
       </c>
       <c r="E24" t="n">
-        <v>298.7453260127367</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F24" t="n">
-        <v>152.2107680396216</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="G24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6078,13 +6080,13 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
         <v>46.89499644164432</v>
@@ -6166,31 +6168,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363101</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="U25" t="n">
-        <v>318.5874281822332</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="V25" t="n">
-        <v>318.5874281822332</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="W25" t="n">
-        <v>318.5874281822332</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>318.5874281822332</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>318.5874281822332</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>900.847885737694</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="C26" t="n">
-        <v>900.847885737694</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="D26" t="n">
-        <v>542.5821871309436</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="E26" t="n">
-        <v>542.5821871309436</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="F26" t="n">
-        <v>542.5821871309436</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="G26" t="n">
         <v>542.5821871309436</v>
@@ -6257,19 +6259,19 @@
         <v>1867.198404760799</v>
       </c>
       <c r="U26" t="n">
-        <v>1677.587057777627</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V26" t="n">
-        <v>1677.587057777627</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W26" t="n">
-        <v>1677.587057777627</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X26" t="n">
-        <v>1677.587057777627</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="Y26" t="n">
-        <v>1287.447725801816</v>
+        <v>556.1146817709021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551149</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739879</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127367</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072812</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
         <v>114.6107419524668</v>
@@ -6306,22 +6308,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6339,16 +6341,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673871</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401369</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2090.065333876329</v>
+        <v>50.96959453712083</v>
       </c>
       <c r="C28" t="n">
-        <v>1933.992884499885</v>
+        <v>50.96959453712083</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="V28" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="W28" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="X28" t="n">
-        <v>2090.065333876329</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="Y28" t="n">
-        <v>2090.065333876329</v>
+        <v>232.6180593673605</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1192.394979505922</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="C29" t="n">
-        <v>823.4324625655099</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D29" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6461,25 +6463,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q29" t="n">
         <v>2344.749822082216</v>
@@ -6488,25 +6490,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T29" t="n">
-        <v>2130.012944234739</v>
+        <v>2046.593027364251</v>
       </c>
       <c r="U29" t="n">
-        <v>1876.226522119606</v>
+        <v>1792.806605249118</v>
       </c>
       <c r="V29" t="n">
-        <v>1545.163634776036</v>
+        <v>1461.743717905548</v>
       </c>
       <c r="W29" t="n">
-        <v>1192.394979505922</v>
+        <v>1108.975062635433</v>
       </c>
       <c r="X29" t="n">
-        <v>1192.394979505922</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="Y29" t="n">
-        <v>1192.394979505922</v>
+        <v>735.5093043743535</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>783.3663200545602</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C30" t="n">
-        <v>608.9132907734332</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D30" t="n">
-        <v>459.978881112182</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E30" t="n">
-        <v>300.7414261067265</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="F30" t="n">
-        <v>154.2068681336114</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.321973676688</v>
+        <v>1949.321510240094</v>
       </c>
       <c r="P30" t="n">
-        <v>2194.728547948901</v>
+        <v>2254.728084512307</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1856.582921005059</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1621.430812773317</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.193456045115</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X30" t="n">
-        <v>1159.341955839582</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y30" t="n">
-        <v>951.5816570746283</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.9389633519935</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>136.9389633519935</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>136.9389633519935</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>136.9389633519935</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>136.9389633519935</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
         <v>46.89499644164432</v>
@@ -6622,7 +6624,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L31" t="n">
         <v>194.9121237200977</v>
@@ -6649,22 +6651,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363101</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U31" t="n">
-        <v>318.5874281822332</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V31" t="n">
-        <v>318.5874281822332</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="W31" t="n">
-        <v>318.5874281822332</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="X31" t="n">
-        <v>318.5874281822332</v>
+        <v>125.1856633885087</v>
       </c>
       <c r="Y31" t="n">
-        <v>318.5874281822332</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1738.167222649673</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="C32" t="n">
-        <v>1738.167222649673</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="D32" t="n">
-        <v>1379.901524042922</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="E32" t="n">
-        <v>994.113271444678</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="F32" t="n">
-        <v>583.1273666550705</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="G32" t="n">
-        <v>377.2436057676033</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164461</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164461</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915538</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O32" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q32" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713795</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713795</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W32" t="n">
-        <v>2124.767062713795</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X32" t="n">
-        <v>2124.767062713795</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2124.767062713795</v>
+        <v>433.4948365057659</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>682.5765037404603</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>508.1234744593334</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>359.1890647980821</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>199.9516097926266</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F33" t="n">
-        <v>53.41705181951156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
         <v>46.89499644164432</v>
@@ -6777,16 +6779,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2525564994817</v>
+        <v>232.2520930628876</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161161</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832905</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N33" t="n">
         <v>1486.172378671464</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T33" t="n">
-        <v>1983.973569036802</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>1755.793104690959</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1520.640996459217</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1266.403639731015</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1058.552139525482</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>850.7918407605284</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6859,7 +6861,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L34" t="n">
         <v>194.9121237200977</v>
@@ -6877,31 +6879,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363101</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="U34" t="n">
-        <v>449.3360404154141</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="V34" t="n">
-        <v>449.3360404154141</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="W34" t="n">
-        <v>449.3360404154141</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="X34" t="n">
-        <v>449.3360404154141</v>
+        <v>184.5279569345859</v>
       </c>
       <c r="Y34" t="n">
-        <v>228.543461271884</v>
+        <v>184.5279569345859</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1676.927759361743</v>
+        <v>1565.847631386595</v>
       </c>
       <c r="C35" t="n">
-        <v>1676.927759361743</v>
+        <v>1565.847631386595</v>
       </c>
       <c r="D35" t="n">
-        <v>1676.927759361743</v>
+        <v>1565.847631386595</v>
       </c>
       <c r="E35" t="n">
         <v>1371.839859437666</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6953,34 +6955,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q35" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991245</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991245</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2050.393517622823</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U35" t="n">
-        <v>2050.393517622823</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V35" t="n">
-        <v>2050.393517622823</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W35" t="n">
-        <v>2050.393517622823</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="X35" t="n">
-        <v>1676.927759361743</v>
+        <v>1565.847631386595</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.927759361743</v>
+        <v>1565.847631386595</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N36" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.321973676688</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2194.728547948901</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7044,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169564</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169564</v>
       </c>
       <c r="G37" t="n">
         <v>46.89499644164432</v>
@@ -7096,7 +7098,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200977</v>
@@ -7117,28 +7119,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>456.5330121699013</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>456.5330121699013</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>456.5330121699013</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U37" t="n">
-        <v>456.5330121699013</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V37" t="n">
-        <v>456.5330121699013</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W37" t="n">
-        <v>456.5330121699013</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="X37" t="n">
-        <v>228.543461271884</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="Y37" t="n">
-        <v>228.543461271884</v>
+        <v>318.3514033993495</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1323.57607389233</v>
+        <v>1325.250045950391</v>
       </c>
       <c r="C38" t="n">
-        <v>954.6135569519179</v>
+        <v>956.2875290099796</v>
       </c>
       <c r="D38" t="n">
-        <v>954.6135569519179</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E38" t="n">
-        <v>568.8253043536736</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F38" t="n">
-        <v>157.839399564066</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733486</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X38" t="n">
-        <v>1713.715405868141</v>
+        <v>2101.989217990325</v>
       </c>
       <c r="Y38" t="n">
-        <v>1323.57607389233</v>
+        <v>1711.849886014513</v>
       </c>
     </row>
     <row r="39">
@@ -7233,19 +7235,19 @@
         <v>447.6797356739879</v>
       </c>
       <c r="D39" t="n">
-        <v>447.6797356739879</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E39" t="n">
-        <v>447.6797356739879</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F39" t="n">
-        <v>301.1451777008729</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>163.0702918335649</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>56.03615136951498</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,22 +7256,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E40" t="n">
-        <v>125.1856633885087</v>
+        <v>2258.880695515537</v>
       </c>
       <c r="F40" t="n">
-        <v>125.1856633885087</v>
+        <v>2111.990748017627</v>
       </c>
       <c r="G40" t="n">
-        <v>125.1856633885087</v>
+        <v>1942.852807764136</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1856633885087</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>379.8701515943956</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>379.8701515943956</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.1856633885087</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1991.981166812102</v>
+        <v>992.1819995350043</v>
       </c>
       <c r="C41" t="n">
-        <v>1991.981166812102</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="D41" t="n">
-        <v>1757.628112035911</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="E41" t="n">
-        <v>1371.839859437666</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H41" t="n">
         <v>212.2335778049849</v>
@@ -7409,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2304.884939707076</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2121.689826845052</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2121.689826845052</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2121.689826845052</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>2121.689826845052</v>
       </c>
       <c r="W41" t="n">
-        <v>1991.981166812102</v>
+        <v>1768.921171574938</v>
       </c>
       <c r="X41" t="n">
-        <v>1991.981166812102</v>
+        <v>1768.921171574938</v>
       </c>
       <c r="Y41" t="n">
-        <v>1991.981166812102</v>
+        <v>1378.781839599126</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E42" t="n">
         <v>506.2543262569397</v>
@@ -7488,19 +7490,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
         <v>1887.88481026779</v>
@@ -7518,22 +7520,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>997.857102219386</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.86091236428</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9247294363731</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363101</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363101</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363101</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363101</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.7685734363101</v>
+        <v>1834.776097684609</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.1606950483948</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="C44" t="n">
-        <v>405.1606950483948</v>
+        <v>187.1521648304903</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>187.1521648304903</v>
       </c>
       <c r="E44" t="n">
         <v>46.89499644164432</v>
@@ -7646,7 +7648,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275675</v>
@@ -7658,10 +7660,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7682,16 +7684,16 @@
         <v>1613.411982645667</v>
       </c>
       <c r="V44" t="n">
-        <v>1534.668522358442</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W44" t="n">
-        <v>1181.899867088328</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X44" t="n">
-        <v>1181.899867088328</v>
+        <v>556.1146817709021</v>
       </c>
       <c r="Y44" t="n">
-        <v>791.7605351125167</v>
+        <v>556.1146817709021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>783.3663200545598</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>608.9132907734328</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>459.9788811121815</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>300.741426106726</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>154.206868133611</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>154.206868133611</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>47.17272766956106</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007834</v>
+        <v>613.982734974978</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1097.210794042152</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213676</v>
+        <v>1608.935475330326</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>2010.647906926652</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7754,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>2062.095821155272</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>951.5816570746279</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G46" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I46" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J46" t="n">
         <v>46.89499644164432</v>
@@ -7825,31 +7827,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q46" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R46" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S46" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U46" t="n">
-        <v>123.2452335224235</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V46" t="n">
-        <v>123.2452335224235</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356321</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>390.8949017221344</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998529</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>208.625607524841</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>177.3009884841357</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>356.4883722205856</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>316.8376071076903</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23343,13 +23345,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>81.31564129514322</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.5458070472942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1410289771301</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>212.3352500859092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>83.36795987508019</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>81.31564129514322</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>105.6924183331601</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23735,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>246.2084518230427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>117.84779758903</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23820,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>66.7636341400767</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>14.27705323942865</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,13 +23907,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23947,7 +23949,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.9863236801441</v>
+        <v>180.1913321250717</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>117.8869409556006</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>290.7729228293906</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,10 +24028,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24051,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>57.9888446771223</v>
+        <v>76.57988169550578</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.86871047767423</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>139.0783256288916</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>155.4606447901851</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>310.336745326522</v>
+        <v>157.3412804663742</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24291,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>99.4701111823516</v>
+        <v>45.0073911886544</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.8035900238477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,10 +24384,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>150.2663674485789</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>400.6918801483851</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>63.53332438064106</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>120.4210546291177</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24579,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>130.2784035477368</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>12.73509621594832</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>144.5816209036906</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24648,7 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24658,7 +24660,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24728,10 +24730,10 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.193422705734804</v>
+        <v>103.9708667373557</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24765,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>39.63080978486009</v>
       </c>
       <c r="G30" t="n">
-        <v>30.45538403358744</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>78.30303360970991</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24889,13 +24891,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>141.0768930746991</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>210.2641265633514</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>264.8442918435688</v>
       </c>
     </row>
     <row r="33">
@@ -25008,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>130.2373021845463</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749143</v>
+        <v>53.38246657340333</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>43.57534929392517</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>129.4411261108491</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>79.8933491474254</v>
+        <v>189.8626758428225</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>42.63153801739909</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>165.5317197306524</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>45.13868060939667</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
@@ -25357,7 +25359,7 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
-        <v>3.091149922420612</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>304.2540907507465</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>129.3981026274967</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25473,13 +25475,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>60.36469784837716</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>57.9888446771223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555705</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.57056535149584</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620182</v>
@@ -25600,13 +25602,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>122.6735173922538</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006114</v>
+        <v>34.1635760886725</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25713,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25758,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>165.5317197306524</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.433910241761</v>
       </c>
     </row>
     <row r="43">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.86339572062748</v>
+        <v>129.4411261108485</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25840,7 +25842,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>243.0757733673042</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>249.7962327857829</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>66.76363414007669</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>137.1803309947776</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26032,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
@@ -26077,13 +26079,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>210.9362636266196</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568408.614493063</v>
+        <v>568408.6144930632</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568408.614493063</v>
+        <v>568408.6144930632</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>568408.6144930631</v>
+        <v>568408.614493063</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>568408.614493063</v>
+        <v>568408.6144930631</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568408.614493063</v>
+        <v>568408.6144930631</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568408.6144930628</v>
+        <v>568408.614493063</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816906</v>
       </c>
       <c r="F2" t="n">
         <v>356907.7346816905</v>
       </c>
       <c r="G2" t="n">
-        <v>356907.7346816906</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="H2" t="n">
         <v>356907.7346816905</v>
       </c>
       <c r="I2" t="n">
-        <v>356907.7346816903</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="J2" t="n">
-        <v>356907.7346816906</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="K2" t="n">
+        <v>356907.7346816904</v>
+      </c>
+      <c r="L2" t="n">
         <v>356907.7346816905</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>356907.7346816904</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>356907.7346816905</v>
-      </c>
-      <c r="N2" t="n">
-        <v>356907.7346816906</v>
       </c>
       <c r="O2" t="n">
         <v>356907.7346816903</v>
       </c>
       <c r="P2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816906</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.53382007599</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
@@ -26427,10 +26429,10 @@
         <v>445.150385721245</v>
       </c>
       <c r="F4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="G4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="H4" t="n">
         <v>445.150385721245</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146027.4342309187</v>
+        <v>146027.4342309184</v>
       </c>
       <c r="C6" t="n">
-        <v>226796.8657624661</v>
+        <v>226796.865762466</v>
       </c>
       <c r="D6" t="n">
-        <v>226796.8657624665</v>
+        <v>226796.8657624663</v>
       </c>
       <c r="E6" t="n">
-        <v>-31371.48060843005</v>
+        <v>-31371.48060842983</v>
       </c>
       <c r="F6" t="n">
         <v>314240.8621705227</v>
       </c>
       <c r="G6" t="n">
-        <v>314240.8621705228</v>
+        <v>314240.8621705227</v>
       </c>
       <c r="H6" t="n">
-        <v>314240.8621705228</v>
+        <v>314240.8621705227</v>
       </c>
       <c r="I6" t="n">
-        <v>314240.8621705225</v>
+        <v>314240.8621705227</v>
       </c>
       <c r="J6" t="n">
-        <v>251180.9195714166</v>
+        <v>251180.9195714165</v>
       </c>
       <c r="K6" t="n">
+        <v>314240.8621705226</v>
+      </c>
+      <c r="L6" t="n">
         <v>314240.8621705227</v>
-      </c>
-      <c r="L6" t="n">
-        <v>314240.8621705226</v>
       </c>
       <c r="M6" t="n">
         <v>228222.3283504467</v>
       </c>
       <c r="N6" t="n">
-        <v>314240.8621705228</v>
+        <v>314240.8621705227</v>
       </c>
       <c r="O6" t="n">
         <v>314240.8621705226</v>
       </c>
       <c r="P6" t="n">
-        <v>314240.8621705227</v>
+        <v>314240.8621705228</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26796,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
         <v>586.187455520554</v>
@@ -26814,13 +26816,13 @@
         <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
+        <v>586.187455520554</v>
+      </c>
+      <c r="L4" t="n">
+        <v>586.187455520554</v>
+      </c>
+      <c r="M4" t="n">
         <v>586.1874555205541</v>
-      </c>
-      <c r="L4" t="n">
-        <v>586.1874555205541</v>
-      </c>
-      <c r="M4" t="n">
-        <v>586.187455520554</v>
       </c>
       <c r="N4" t="n">
         <v>586.187455520554</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9922493601736</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,19 +27514,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>112.8548240098554</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>4.829496336780863</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>183.2253569475704</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>129.0472453454436</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>135.0341266295844</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>187.8898775365355</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>150.5359555927217</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27980,19 +27982,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>106.5525690386005</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>105.6922114080913</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31756,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0031279382449</v>
+        <v>60.43011789536098</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,7 +32083,7 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,25 +32232,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32257,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32333,7 +32335,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32342,10 +32344,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32560,7 @@
         <v>140.9980901415502</v>
       </c>
       <c r="M21" t="n">
-        <v>30.86959705221051</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
@@ -32570,7 +32572,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R21" t="n">
         <v>40.31853275515171</v>
@@ -32786,7 +32788,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454668</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32798,7 +32800,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
-        <v>168.8929552025813</v>
+        <v>12.93721689827635</v>
       </c>
       <c r="O24" t="n">
         <v>154.5040580932971</v>
@@ -33281,7 +33283,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.44112688887472</v>
+        <v>20.83553440058552</v>
       </c>
       <c r="R30" t="n">
         <v>40.31853275515171</v>
@@ -33503,7 +33505,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>89.90300600836895</v>
+        <v>29.29741352007966</v>
       </c>
       <c r="M33" t="n">
         <v>164.5381207449218</v>
@@ -33734,7 +33736,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33749,7 +33751,7 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
@@ -33983,7 +33985,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
-        <v>105.3199451596975</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
         <v>154.5040580932971</v>
@@ -33992,7 +33994,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R39" t="n">
         <v>40.31853275515171</v>
@@ -34150,7 +34152,7 @@
         <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
         <v>76.23930830108854</v>
@@ -34217,7 +34219,7 @@
         <v>140.9980901415502</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449218</v>
+        <v>8.582382440616868</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
@@ -34366,7 +34368,7 @@
         <v>46.79069402069872</v>
       </c>
       <c r="J44" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525004</v>
       </c>
       <c r="K44" t="n">
         <v>154.3856233586785</v>
@@ -34451,7 +34453,7 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L45" t="n">
-        <v>140.9980901415502</v>
+        <v>109.0454797754901</v>
       </c>
       <c r="M45" t="n">
         <v>164.5381207449218</v>
@@ -34463,7 +34465,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P45" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>82.89280709988239</v>
@@ -34781,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K12" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35501,10 +35503,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35741,7 +35743,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595468</v>
       </c>
       <c r="Q15" t="n">
         <v>152.98832074971</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35890,13 +35892,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685985</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>354.4406268801921</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36218,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O24" t="n">
-        <v>402.802715370987</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
@@ -36683,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36692,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>151.5366405387023</v>
+        <v>90.9310480504131</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>322.1889715319539</v>
+        <v>261.5833790436646</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.9231214167495</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
@@ -37397,13 +37399,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>151.5366405387018</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651352</v>
@@ -37631,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37640,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093428</v>
@@ -37865,13 +37867,13 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685985</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>189.2088021329884</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788805</v>
+        <v>91.0609347978879</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
-        <v>373.2840556651352</v>
+        <v>341.3314452990751</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
